--- a/dr-backend/Inferno-registrations-26.xlsx
+++ b/dr-backend/Inferno-registrations-26.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -624,16 +624,104 @@
         <v>3:00 PM onwards</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>6973bbb585a486a38edfc3e2</v>
+      </c>
+      <c r="C6" t="str">
+        <v>23 January 2026</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Falguni pathak</v>
+      </c>
+      <c r="E6" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="F6" t="str">
+        <v>MDMD</v>
+      </c>
+      <c r="G6" t="str">
+        <v>QUIZZARDS</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Trending Gen Z Quiz</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Cash</v>
+      </c>
+      <c r="K6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6" t="str">
+        <v>14-02-2025</v>
+      </c>
+      <c r="N6" t="str">
+        <v>3:00 PM onwards</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>6973bea1b3baae69f1f5df1a</v>
+      </c>
+      <c r="C7" t="str">
+        <v>24 January 2026</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Keshav</v>
+      </c>
+      <c r="E7" t="str">
+        <v>9846547654</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Apna College</v>
+      </c>
+      <c r="G7" t="str">
+        <v>SEMICOLON</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Code Arena</v>
+      </c>
+      <c r="I7">
+        <v>150</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Cash</v>
+      </c>
+      <c r="K7" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7" t="str">
+        <v>14-02-2025</v>
+      </c>
+      <c r="N7" t="str">
+        <v>9:30 AM</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N7"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -675,19 +763,27 @@
         <v>QUIZZARDS</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>SEMICOLON</v>
+      </c>
+      <c r="B6">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B6"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -758,9 +854,31 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>QUIZZARDS</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Trending Gen Z Quiz</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>SEMICOLON</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Code Arena</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
   </ignoredErrors>
 </worksheet>
 </file>